--- a/biology/Botanique/Agaricus/Agaricus.xlsx
+++ b/biology/Botanique/Agaricus/Agaricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Agarics, aussi appelés Psalliotes[1], sont des champignons à lames basidiomycètes du genre Agaricus, appartenant à la famille des agaricacées. Il en existe de très nombreuses espèces, qui, pour la plupart, se ressemblent fortement. Certaines espèces sont comestibles, mais d'autres sont toxiques, comme l'agaric jaunissant (Agaricus xanthodermus). L'espèce la plus consommée est Agaricus bisporus, cultivé de façon industrielle en champignonnière sous le nom de champignon de Paris. Les espèces « sauvages » croissent de façon souvent abondante, dès les premières pluies de l'été, dans les prés et les taillis, parfois dans les bois clairs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Agarics, aussi appelés Psalliotes, sont des champignons à lames basidiomycètes du genre Agaricus, appartenant à la famille des agaricacées. Il en existe de très nombreuses espèces, qui, pour la plupart, se ressemblent fortement. Certaines espèces sont comestibles, mais d'autres sont toxiques, comme l'agaric jaunissant (Agaricus xanthodermus). L'espèce la plus consommée est Agaricus bisporus, cultivé de façon industrielle en champignonnière sous le nom de champignon de Paris. Les espèces « sauvages » croissent de façon souvent abondante, dès les premières pluies de l'été, dans les prés et les taillis, parfois dans les bois clairs.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs origines du nom de genre Agaricus ont été proposées. Il provient peut-être de l'ancien pays Sarmates, où sont connus le peuple Agari (tribu des Agaragantes (en)), le promontoire Agarum et une rivière Agarus, tous situés sur la rive nord de la mer d'Azov, probablement, près de l'actuelle ville de Berdiansk (Ukraine)[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs origines du nom de genre Agaricus ont été proposées. Il provient peut-être de l'ancien pays Sarmates, où sont connus le peuple Agari (tribu des Agaragantes (en)), le promontoire Agarum et une rivière Agarus, tous situés sur la rive nord de la mer d'Azov, probablement, près de l'actuelle ville de Berdiansk (Ukraine).
 A. de Théis écrivait en 1810 : 
-« Comme la plupart de ces plantes croissent en Grèce, il est à croire que le nom d'Agaric n'exprime pas le lieu où on les trouvait, mais l'usage habituel qu'en faisaient les habitants d'Agarie. Les Sarmates ont de tout temps mangé un grand nombre d'espèces de champignons, même de celles qui parmi nous sont réputés vénéneuses[5]. »
-On note également le grec ἀγαρικόν / agarikón, « sorte de champignon ». Il y eut aussi un genre Agaricon [Tourn.] Adans[6].
+« Comme la plupart de ces plantes croissent en Grèce, il est à croire que le nom d'Agaric n'exprime pas le lieu où on les trouvait, mais l'usage habituel qu'en faisaient les habitants d'Agarie. Les Sarmates ont de tout temps mangé un grand nombre d'espèces de champignons, même de celles qui parmi nous sont réputés vénéneuses. »
+On note également le grec ἀγαρικόν / agarikón, « sorte de champignon ». Il y eut aussi un genre Agaricon [Tourn.] Adans.
 Le mot Agaricus n'a cependant aucune parenté avec Agarum (nom de genre d'algues Phaeophyceae) dont l'étymologie est tout à fait différente.
 </t>
         </is>
@@ -546,12 +560,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les agarics sont des champignons dont les lamelles, libres, sont roses lorsque le champignon est jeune, puis brun-noir à noires lorsqu'il vieillit[7].
-La sporée visible sur les chapeaux inférieurs, est brune noirâtre ou noire[7].
-Le chapeau, charnu, généralement lisse et blanc chez les exemplaires jeunes, se recouvre ensuite de fibrilles ou de squames de couleur ocrée à mesure qu'il s'ouvre[7].
-Le pied est au départ rattaché au chapeau par un voile partiel, qui se transforme ensuite en anneau. Il peut facilement se séparer du chapeau. Il ne porte pas de volve, ce qui permet, entre autres caractéristiques, de distinguer les agarics des amanites blanches mortelles. Une confusion est également possible avec certaines petites lépiotes, mais ces dernières ont des lamelles et des spores blanches[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les agarics sont des champignons dont les lamelles, libres, sont roses lorsque le champignon est jeune, puis brun-noir à noires lorsqu'il vieillit.
+La sporée visible sur les chapeaux inférieurs, est brune noirâtre ou noire.
+Le chapeau, charnu, généralement lisse et blanc chez les exemplaires jeunes, se recouvre ensuite de fibrilles ou de squames de couleur ocrée à mesure qu'il s'ouvre.
+Le pied est au départ rattaché au chapeau par un voile partiel, qui se transforme ensuite en anneau. Il peut facilement se séparer du chapeau. Il ne porte pas de volve, ce qui permet, entre autres caractéristiques, de distinguer les agarics des amanites blanches mortelles. Une confusion est également possible avec certaines petites lépiotes, mais ces dernières ont des lamelles et des spores blanches.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Agaricus arvensis : agaric des jachères. Parfois appelé boule de neige, c'est un des plus grands agarics, poussant dans les prairies et les endroits découverts. Son chapeau hémisphérique est généralement blanc. Il se distingue des espèces voisines par son odeur anisée assez prononcée et son anneau, dont le bas forme une sorte de roue d'engrenage.
 Agaricus bisporus : agaric bispore. Rare à l'état sauvage, il est cultivé sous le nom de champignon de Paris.
@@ -618,10 +636,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biologie
-Des études dites d'« estimations de l'horloge moléculaire » pour évaluer l'âge de séparation du genre Agaricus de ses plus proches parents biologiques, situent cette séparation entre 33 et 73 millions d'années[8].
-Médecine
-L'agaric pouvait être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle[9].
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études dites d'« estimations de l'horloge moléculaire » pour évaluer l'âge de séparation du genre Agaricus de ses plus proches parents biologiques, situent cette séparation entre 33 et 73 millions d'années.
 </t>
         </is>
       </c>
@@ -647,12 +668,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Agarics sont victimes de la voracité d'insectes mycophages, tels que Diaperis boleti, Ula macroptera[10].
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agaric pouvait être un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle.
 </t>
         </is>
       </c>
@@ -678,57 +705,98 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Agarics sont victimes de la voracité d'insectes mycophages, tels que Diaperis boleti, Ula macroptera.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agaricus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agaricus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Consommation et risques associés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Presque tous les agarics sont comestibles (à quelques exceptions comme l'agaric jaunissant Agaricus xanthodermus), et d'excellente réputation culinaire.
 Cependant : 
 certaines espèces peuvent être confondues avec des amanites toxiques ressemblantes (comme Amanita virosa), qui s'en distinguent cependant par le pied et quelques autres caractéristiques ;
-en région méditerranéenne, toutes les espèces d'agarics comestibles prélevés dans la nature sont (avec aussi Russula vesca ou Calvatia gigantea) les champignons qui bioaccumulent les deux métaux hautement toxiques que sont le cadmium (Cd) et le plomb (Pb) ; dans la plupart des cas, quand ils sont sauvages, les agarics présentent des taux de ces deux métaux lourds supérieurs aux limites de l'UE pour les champignons cultivés. Mais quand ils sont cultivés sur des substrats propres, leurs cultures commerciales produisent des champignons dont le taux de ces métaux respectent les limites de l'UE pour les champignons cultivés[11].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+en région méditerranéenne, toutes les espèces d'agarics comestibles prélevés dans la nature sont (avec aussi Russula vesca ou Calvatia gigantea) les champignons qui bioaccumulent les deux métaux hautement toxiques que sont le cadmium (Cd) et le plomb (Pb) ; dans la plupart des cas, quand ils sont sauvages, les agarics présentent des taux de ces deux métaux lourds supérieurs aux limites de l'UE pour les champignons cultivés. Mais quand ils sont cultivés sur des substrats propres, leurs cultures commerciales produisent des champignons dont le taux de ces métaux respectent les limites de l'UE pour les champignons cultivés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Agaricus</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agaricus</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste d'espèces du genre Agaricus
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste d'espèces du genre Agaricus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Agaricus agrinferus Kerrigan &amp; Callac 2008
 Agaricus albolutescens Zeller, 1938
 Agaricus aestivalis Pilat, 1951
 Agaricus aff. benesii
-Agaricus annae[12]
-Agaricus alabamensis[13]
+Agaricus annae
+Agaricus alabamensis
 Agaricus albertii Bon, 1988
 Agaricus altipes
 Agaricus amicosus
 Agaricus arcticus
 Agaricus argenteus
-Agaricus argentinus[14]
+Agaricus argentinus
 Agaricus aristocratus
 Agaricus arorae
 Agaricus arvensis (agaric des jachères)
@@ -739,15 +807,15 @@
 Agaricus bitorquis
 Agaricus bohusii
 Agaricus bresadolanus
-Agaricus californicus[15]
-Agaricus campbellensis[16]
+Agaricus californicus
+Agaricus campbellensis
 Agaricus campestris (agaric champêtre ou rosé des prés)
 Agaricus cellaris
-Agaricus chartaceus[17]
-Agaricus chionodermus[12]
+Agaricus chartaceus
+Agaricus chionodermus
 Agaricus chlamydopus
 Agaricus collegarum
-Agaricus comtuliformis[13]
+Agaricus comtuliformis
 Agaricus comtulus
 Agaricus cretacellus
 Agaricus cretaceus
@@ -759,9 +827,9 @@
 Agaricus devoniensis
 Agaricus diminutivus
 Agaricus dulcidulus (Rosy Wood Mushroom)
-Agaricus eburneocanus[17]
-Agaricus endoxanthus[18]
-Agaricus erthyrosarx[17]
+Agaricus eburneocanus
+Agaricus endoxanthus
+Agaricus erthyrosarx
 Agaricus essettei
 Agaricus excellens
 Agaricus fissuratus
@@ -775,20 +843,20 @@
 Agaricus hondensis
 Agaricus hortensis
 Agaricus huijsmanii Courtec. 2008
-Agaricus inilleasper[17]
+Agaricus inilleasper
 Agaricus impudicus
 Agaricus inapertus
 Agaricus koelerionensis
 Agaricus lacrymabunda
 Agaricus langei
 Agaricus lanipes
-Agaricus laskibarii[19]
+Agaricus laskibarii
 Agaricus leucotrichus
 Agaricus lilaceps (Cypress Agaricus)
 Agaricus litoralis
-Agaricus ludovici[20]
+Agaricus ludovici
 Agaricus luteomaculatus
-Agaricus maclovianus[21]
+Agaricus maclovianus
 Agaricus macrocarpus
 Agaricus macrolepis (Pilát &amp; Pouzar) Boisselet &amp; Courtec. 2008
 Agaricus macrosporus
@@ -803,9 +871,9 @@
 Agaricus niveolutescens
 Agaricus nivescens
 Agaricus osecanus
-Agaricus pachydermus[17]
+Agaricus pachydermus
 Agaricus pampeanus
-Agaricus parvitigrinus[22]
+Agaricus parvitigrinus
 Agaricus pattersonae
 Agaricus perobscurus
 Agaricus perrarus
@@ -821,7 +889,7 @@
 Agaricus purpurellus
 Agaricus radicatus
 Agaricus romagnesii
-Agaricus rosalamellatus[23]
+Agaricus rosalamellatus
 Agaricus rotalis
 Agaricus rubellus
 Agaricus rusiophyllus
@@ -833,7 +901,7 @@
 Agaricus spissicaulis
 Agaricus stigmaticus Courtec. 2008
 Agaricus stramineus
-Agaricus subantarcticus[16]
+Agaricus subantarcticus
 Agaricus subfloccosus
 Agaricus subperonatus
 Agaricus subrufescens (agaric royal)
@@ -844,41 +912,10 @@
 Agaricus urinascens
 Agaricus vaporarius
 Agaricus variegans
-Agaricus valdiviae[24],[25]
-Agaricus xanthodermulus [22]
+Agaricus valdiviae,
+Agaricus xanthodermulus 
 Agaricus xanthodermus (Agaric jaunissant)
-Agaricus xantholepis [26]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Agaricus</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agaricus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Dans la culture</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des agarics sont représentés sur une fresque aztèque représentant Tlalocan[27], le paradis de Tlaloc, le dieu de la pluie. Elle se trouve dans le palais de Tepantitla à Teotihuacan[28].
+Agaricus xantholepis 
 </t>
         </is>
       </c>
@@ -904,10 +941,45 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des agarics sont représentés sur une fresque aztèque représentant Tlalocan, le paradis de Tlaloc, le dieu de la pluie. Elle se trouve dans le palais de Tepantitla à Teotihuacan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agaricus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agaricus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Agaricus perobscurus
